--- a/myapp/files/9_MethodComparePercent/Scenario 315.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 315.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>5803</v>
+        <v>8131</v>
       </c>
       <c r="F2" t="n">
-        <v>5.51212515554205</v>
+        <v>1.50289637020306</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.17460317460317</v>
+        <v>1.42857142857143</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>7188</v>
+        <v>22319</v>
       </c>
       <c r="F3" t="n">
-        <v>6.82770215716633</v>
+        <v>4.12534055916395</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -631,10 +631,10 @@
         <v>1.53846153846154</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>6.34920634920635</v>
+        <v>3.92857142857143</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>17963</v>
+        <v>48586</v>
       </c>
       <c r="F4" t="n">
-        <v>17.0626062672759</v>
+        <v>8.98041114779066</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -669,10 +669,10 @@
         <v>7.69230769230769</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J4" t="n">
-        <v>15.8730158730159</v>
+        <v>8.92857142857143</v>
       </c>
       <c r="K4" t="n">
         <v>10</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>17296</v>
+        <v>35644</v>
       </c>
       <c r="F5" t="n">
-        <v>16.4290395812951</v>
+        <v>6.58827182628433</v>
       </c>
       <c r="G5" t="n">
         <v>6</v>
@@ -707,10 +707,10 @@
         <v>9.23076923076923</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J5" t="n">
-        <v>12.6984126984127</v>
+        <v>7.5</v>
       </c>
       <c r="K5" t="n">
         <v>7</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>4294</v>
+        <v>12071</v>
       </c>
       <c r="F6" t="n">
-        <v>4.078763642581</v>
+        <v>2.23114771672871</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         <v>1.53846153846154</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J6" t="n">
-        <v>4.76190476190476</v>
+        <v>3.92857142857143</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>290</v>
+        <v>4071</v>
       </c>
       <c r="F7" t="n">
-        <v>0.275463776513388</v>
+        <v>0.752464779620792</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -783,10 +783,10 @@
         <v>1.53846153846154</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.58730158730159</v>
+        <v>1.78571428571429</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>2349</v>
+        <v>23186</v>
       </c>
       <c r="F8" t="n">
-        <v>2.23125658975845</v>
+        <v>4.28559282247302</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
@@ -821,10 +821,10 @@
         <v>4.61538461538462</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J8" t="n">
-        <v>1.58730158730159</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>6937</v>
+        <v>43100</v>
       </c>
       <c r="F9" t="n">
-        <v>6.58928350921854</v>
+        <v>7.96640432366891</v>
       </c>
       <c r="G9" t="n">
         <v>10</v>
@@ -859,16 +859,16 @@
         <v>15.3846153846154</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J9" t="n">
-        <v>6.34920634920635</v>
+        <v>9.64285714285714</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>6.15384615384615</v>
+        <v>7.69230769230769</v>
       </c>
     </row>
     <row r="10">
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>9564</v>
+        <v>40617</v>
       </c>
       <c r="F10" t="n">
-        <v>9.08460537439327</v>
+        <v>7.50745810706404</v>
       </c>
       <c r="G10" t="n">
         <v>7</v>
@@ -897,10 +897,10 @@
         <v>10.7692307692308</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="J10" t="n">
-        <v>14.2857142857143</v>
+        <v>10.3571428571429</v>
       </c>
       <c r="K10" t="n">
         <v>9</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>2272</v>
+        <v>20043</v>
       </c>
       <c r="F11" t="n">
-        <v>2.15811620771869</v>
+        <v>3.70465526355675</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J11" t="n">
-        <v>4.76190476190476</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>8061</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.48995789450337</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.42857142857143</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>2312</v>
+        <v>29088</v>
       </c>
       <c r="F13" t="n">
-        <v>2.1961112113757</v>
+        <v>5.37649115932439</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -1011,10 +1011,10 @@
         <v>4.61538461538462</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>4.76190476190476</v>
+        <v>4.64285714285714</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>13214</v>
+        <v>69378</v>
       </c>
       <c r="F14" t="n">
-        <v>12.5516494580963</v>
+        <v>12.8235081013341</v>
       </c>
       <c r="G14" t="n">
         <v>10</v>
@@ -1049,16 +1049,16 @@
         <v>15.3846153846154</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J14" t="n">
-        <v>7.93650793650794</v>
+        <v>7.5</v>
       </c>
       <c r="K14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
-        <v>13.8461538461538</v>
+        <v>12.3076923076923</v>
       </c>
     </row>
     <row r="15">
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>7735</v>
+        <v>61633</v>
       </c>
       <c r="F15" t="n">
-        <v>7.34728383217607</v>
+        <v>11.3919581828465</v>
       </c>
       <c r="G15" t="n">
         <v>8</v>
@@ -1087,10 +1087,10 @@
         <v>12.3076923076923</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>9.52380952380952</v>
+        <v>8.57142857142857</v>
       </c>
       <c r="K15" t="n">
         <v>7</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>8060</v>
+        <v>34609</v>
       </c>
       <c r="F16" t="n">
-        <v>7.65599323688935</v>
+        <v>6.39696722129599</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -1125,10 +1125,10 @@
         <v>4.61538461538462</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J16" t="n">
-        <v>6.34920634920635</v>
+        <v>5.35714285714286</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>4083</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.754682804026454</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.07142857142857</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>12050</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.2272661740188</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.53846153846154</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>12142</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2.24427102779554</v>
       </c>
       <c r="G19" t="n">
         <v>3</v>
@@ -1239,10 +1239,10 @@
         <v>4.61538461538462</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.21428571428571</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>20402</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3.77101116035947</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -1277,10 +1277,10 @@
         <v>3.07692307692308</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3.92857142857143</v>
       </c>
       <c r="K20" t="n">
         <v>2</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>10048</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1.85722576900755</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>3072</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.567814247849441</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>5184</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.958186543245931</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1391,10 +1391,10 @@
         <v>1.53846153846154</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>5184</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.958186543245931</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>5184</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.958186543245931</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>3136</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.579643711346304</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
